--- a/MoD/inputs/MoD.xlsx
+++ b/MoD/inputs/MoD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -535,7 +535,11 @@
           <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
           <t>1.1.3.7</t>
@@ -565,7 +569,11 @@
         </is>
       </c>
       <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
@@ -642,8 +650,10 @@
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="n">
-        <v>1.15</v>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
@@ -699,8 +709,10 @@
           <t>Synchronous mode of delivery</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>1.11</v>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
@@ -905,8 +917,10 @@
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="n">
-        <v>1</v>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
@@ -1484,8 +1498,10 @@
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="n">
-        <v>1.2</v>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
@@ -1592,8 +1608,10 @@
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="n">
-        <v>1.14</v>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
@@ -1653,8 +1671,10 @@
           <t>Individual-based mode of delivery; Pair-based mode of delivery</t>
         </is>
       </c>
-      <c r="E23" s="2" t="n">
-        <v>1.7</v>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
@@ -1757,8 +1777,10 @@
           <t>Pair-based mode of delivery; Group-based mode of delivery</t>
         </is>
       </c>
-      <c r="E25" s="2" t="n">
-        <v>1.5</v>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
@@ -1806,8 +1828,10 @@
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="n">
-        <v>1.1</v>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
@@ -2067,8 +2091,10 @@
           <t>Uni-directional mode of delivery</t>
         </is>
       </c>
-      <c r="E31" s="2" t="n">
-        <v>1.9</v>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
@@ -2540,8 +2566,10 @@
           <t>Individual-based mode of delivery; Group-based mode of delivery</t>
         </is>
       </c>
-      <c r="E40" s="2" t="n">
-        <v>1.6</v>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
@@ -2966,8 +2994,10 @@
           <t>Push mode of delivery</t>
         </is>
       </c>
-      <c r="E48" s="2" t="n">
-        <v>1.13</v>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
@@ -3019,8 +3049,10 @@
           <t>Pull mode of delivery</t>
         </is>
       </c>
-      <c r="E49" s="2" t="n">
-        <v>1.12</v>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
@@ -3123,8 +3155,10 @@
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
-      <c r="E51" s="2" t="n">
-        <v>1.4</v>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
@@ -3176,8 +3210,10 @@
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="n">
-        <v>1.3</v>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
@@ -3547,8 +3583,10 @@
           <t>Interactional mode of delivery</t>
         </is>
       </c>
-      <c r="E59" s="2" t="n">
-        <v>1.8</v>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>

--- a/MoD/inputs/MoD.xlsx
+++ b/MoD/inputs/MoD.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/MoD/inputs/MoD.xlsx
+++ b/MoD/inputs/MoD.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>(((  ))) test /// test2</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -560,15 +560,15 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="inlineStr">
         <is>
           <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="n"/>
       <c r="N2" s="2" t="inlineStr">
         <is>
           <t>ZZ</t>
@@ -579,8 +579,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -598,7 +598,7 @@
           <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
           <t>1.3.1.2</t>
@@ -619,19 +619,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
       <c r="O3" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
           <t xml:space="preserve">Mode of delivery that involves application of creativity on the part of the intervention recipient. </t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="n"/>
       <c r="E4" s="2" t="inlineStr">
         <is>
           <t>1.15</t>
@@ -670,23 +670,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
           <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
       <c r="O4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -729,19 +729,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
           <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="n"/>
       <c r="E6" s="2" t="inlineStr">
         <is>
           <t>1.1.1.2</t>
@@ -780,19 +780,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
           <t>Call mode of delivery that involves only audio information in the communication.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t>1.1.3.11.1</t>
@@ -831,23 +831,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
           <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -865,7 +865,7 @@
           <t>Informational mode of delivery that involves sound.</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="n"/>
       <c r="E8" s="2" t="inlineStr">
         <is>
           <t>1.1.4</t>
@@ -886,19 +886,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="n"/>
+      <c r="Q8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -916,7 +916,7 @@
           <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="inlineStr">
         <is>
           <t>1</t>
@@ -937,23 +937,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="inlineStr">
         <is>
           <t>BCI mode of delivery</t>
         </is>
       </c>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
           <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t>1.3.1.3</t>
@@ -992,19 +992,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1022,7 +1022,7 @@
           <t xml:space="preserve">Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication. </t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="inlineStr">
         <is>
           <t>1.1.3.11</t>
@@ -1043,23 +1043,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="n"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
           <t>Added in order to be able to capture the concept of a 'call'.</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
       <c r="O11" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1077,7 +1077,7 @@
           <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="inlineStr">
         <is>
           <t>1.3.2</t>
@@ -1098,23 +1098,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
           <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
       <c r="O12" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
           <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t>1.1.3.3</t>
@@ -1153,19 +1153,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
           <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="inlineStr">
         <is>
           <t>1.1.3.16</t>
@@ -1204,19 +1204,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P14" s="2" t="inlineStr"/>
-      <c r="Q14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1234,7 +1234,7 @@
           <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t>1.3.3.3</t>
@@ -1255,19 +1255,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
       <c r="O15" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P15" s="2" t="inlineStr"/>
-      <c r="Q15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1285,7 +1285,7 @@
           <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="n"/>
       <c r="E16" s="2" t="inlineStr">
         <is>
           <t>1.1.3.4</t>
@@ -1306,19 +1306,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
       <c r="O16" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P16" s="2" t="inlineStr"/>
-      <c r="Q16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1336,7 +1336,7 @@
           <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="n"/>
       <c r="E17" s="2" t="inlineStr">
         <is>
           <t>1.1.3.6</t>
@@ -1357,23 +1357,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
       <c r="O17" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P17" s="2" t="inlineStr"/>
-      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="n"/>
+      <c r="Q17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
           <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="n"/>
       <c r="E18" s="2" t="inlineStr">
         <is>
           <t>1.1.3</t>
@@ -1412,23 +1412,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="n"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
           <t>Electronic has been used rather than digital because not all of the content may involve digital encoding - some may be analogue. Also, it is the electronic nature that is central not the means of encoding.</t>
         </is>
       </c>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
       <c r="O18" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
           <t>Electronic mode of delivery that involves communication by email.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1.1.3.12</t>
@@ -1467,19 +1467,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
       <c r="O19" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P19" s="2" t="inlineStr"/>
-      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1497,7 +1497,7 @@
           <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="inlineStr">
         <is>
           <t>1.2</t>
@@ -1518,27 +1518,27 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="n"/>
       <c r="J20" s="2" t="inlineStr">
         <is>
           <t>This is a very heterogeneous class that will need to be further subdivided.</t>
         </is>
       </c>
-      <c r="K20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="n"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
           <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
       </c>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
       <c r="O20" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1556,7 +1556,7 @@
           <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="n"/>
       <c r="E21" s="2" t="inlineStr">
         <is>
           <t>1.1.1.1</t>
@@ -1577,19 +1577,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
       <c r="O21" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="n"/>
+      <c r="Q21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1607,7 +1607,7 @@
           <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="n"/>
       <c r="E22" s="2" t="inlineStr">
         <is>
           <t>1.14</t>
@@ -1633,22 +1633,22 @@
           <t>https://www.lexico.com/en/definition/gamification</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
           <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
       <c r="O22" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P22" s="2" t="inlineStr"/>
-      <c r="Q22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1691,19 +1691,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
       <c r="O23" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P23" s="2" t="inlineStr"/>
-      <c r="Q23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1721,7 +1721,7 @@
           <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="n"/>
       <c r="E24" s="2" t="inlineStr">
         <is>
           <t>1.1.1</t>
@@ -1742,19 +1742,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
       <c r="O24" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P24" s="2" t="inlineStr"/>
-      <c r="Q24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="n"/>
+      <c r="Q24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1797,19 +1797,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
       <c r="O25" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P25" s="2" t="inlineStr"/>
-      <c r="Q25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1827,7 +1827,7 @@
           <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="n"/>
       <c r="E26" s="2" t="inlineStr">
         <is>
           <t>1.1</t>
@@ -1848,23 +1848,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
           <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
       <c r="O26" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P26" s="2" t="inlineStr"/>
-      <c r="Q26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1882,7 +1882,7 @@
           <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="n"/>
       <c r="E27" s="2" t="inlineStr">
         <is>
           <t>1.3.1.2.2</t>
@@ -1903,19 +1903,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+      <c r="K27" s="2" t="n"/>
+      <c r="L27" s="2" t="n"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="n"/>
       <c r="O27" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P27" s="2" t="inlineStr"/>
-      <c r="Q27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="n"/>
+      <c r="Q27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -1933,7 +1933,7 @@
           <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="n"/>
       <c r="E28" s="2" t="inlineStr">
         <is>
           <t>1.3.1</t>
@@ -1954,19 +1954,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
       <c r="O28" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P28" s="2" t="inlineStr"/>
-      <c r="Q28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -1984,7 +1984,7 @@
           <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="n"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
           <t>1.3.1.4</t>
@@ -2005,19 +2005,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
       <c r="O29" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P29" s="2" t="inlineStr"/>
-      <c r="Q29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2035,7 +2035,7 @@
           <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="n"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
           <t>1.3.1.5</t>
@@ -2056,19 +2056,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
       <c r="O30" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P30" s="2" t="inlineStr"/>
-      <c r="Q30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="n"/>
+      <c r="Q30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2111,19 +2111,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
       <c r="O31" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P31" s="2" t="inlineStr"/>
-      <c r="Q31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2141,7 +2141,7 @@
           <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="n"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
           <t>1.3.1.5.3</t>
@@ -2162,19 +2162,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
       <c r="O32" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2192,7 +2192,7 @@
           <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="n"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
           <t>1.3.1.5.2</t>
@@ -2213,19 +2213,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
       <c r="O33" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="n"/>
+      <c r="Q33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2243,7 +2243,7 @@
           <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="n"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
           <t>1.1.2.4</t>
@@ -2264,19 +2264,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
       <c r="O34" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2294,7 +2294,7 @@
           <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="n"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
           <t>1.1.2.1</t>
@@ -2315,19 +2315,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
       <c r="O35" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2345,7 +2345,7 @@
           <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="n"/>
       <c r="E36" s="2" t="inlineStr">
         <is>
           <t>1.3.3.1</t>
@@ -2366,23 +2366,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
       <c r="K36" s="2" t="inlineStr">
         <is>
           <t>Includes photo therapy</t>
         </is>
       </c>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
       <c r="O36" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="n"/>
+      <c r="Q36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
           <t>Call mode of delivery that involves textual information in the communication.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="n"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
           <t>1.1.3.11.3</t>
@@ -2421,23 +2421,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
           <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
       <c r="O37" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P37" s="2" t="inlineStr"/>
-      <c r="Q37" s="2" t="inlineStr"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2455,7 +2455,7 @@
           <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="n"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
           <t>1.1.3.15</t>
@@ -2476,23 +2476,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="n"/>
       <c r="J38" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> The distinction between websites and mobile applications has become blurred with the advent of webapps.</t>
         </is>
       </c>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
       <c r="O38" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P38" s="2" t="inlineStr"/>
-      <c r="Q38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2510,7 +2510,7 @@
           <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="n"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
           <t>1.1.3.2</t>
@@ -2531,19 +2531,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="n"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="2" t="n"/>
+      <c r="M39" s="2" t="n"/>
+      <c r="N39" s="2" t="n"/>
       <c r="O39" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="n"/>
+      <c r="Q39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2586,19 +2586,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
       <c r="O40" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2616,7 +2616,7 @@
           <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="n"/>
       <c r="E41" s="2" t="inlineStr">
         <is>
           <t>1.3.3.4</t>
@@ -2637,23 +2637,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+      <c r="K41" s="2" t="n"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Includes massage.</t>
         </is>
       </c>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
       <c r="O41" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="inlineStr"/>
+      <c r="P41" s="2" t="n"/>
+      <c r="Q41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2671,7 +2671,7 @@
           <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="n"/>
       <c r="E42" s="2" t="inlineStr">
         <is>
           <t>1.3.3</t>
@@ -2692,19 +2692,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
+      <c r="L42" s="2" t="n"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
       <c r="O42" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="n"/>
+      <c r="Q42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2722,7 +2722,7 @@
           <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="n"/>
       <c r="E43" s="2" t="inlineStr">
         <is>
           <t>1.3.1.2.1</t>
@@ -2743,19 +2743,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
       <c r="O43" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2773,7 +2773,7 @@
           <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="n"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
           <t>1.1.3.9</t>
@@ -2794,23 +2794,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
       <c r="O44" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P44" s="2" t="inlineStr"/>
-      <c r="Q44" s="2" t="inlineStr"/>
+      <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2828,7 +2828,7 @@
           <t>Informational mode of delivery that involves use of printed material.</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="n"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
           <t>1.1.2</t>
@@ -2849,23 +2849,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
       <c r="O45" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P45" s="2" t="inlineStr"/>
-      <c r="Q45" s="2" t="inlineStr"/>
+      <c r="P45" s="2" t="n"/>
+      <c r="Q45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -2883,7 +2883,7 @@
           <t xml:space="preserve">Printed material mode of delivery that involves use of of a printed publication. </t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="n"/>
       <c r="E46" s="2" t="inlineStr">
         <is>
           <t>1.1.2.3</t>
@@ -2904,23 +2904,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Includes leaflets, brochures, newspapers, newsletter, booklets, mazazines, manuals or worksheets.</t>
         </is>
       </c>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
       <c r="O46" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P46" s="2" t="inlineStr"/>
-      <c r="Q46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="n"/>
+      <c r="Q46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -2938,7 +2938,7 @@
           <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="n"/>
       <c r="E47" s="2" t="inlineStr">
         <is>
           <t>1.1.2.2</t>
@@ -2959,19 +2959,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
       <c r="O47" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P47" s="2" t="inlineStr"/>
-      <c r="Q47" s="2" t="inlineStr"/>
+      <c r="P47" s="2" t="n"/>
+      <c r="Q47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3014,19 +3014,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
       <c r="O48" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P48" s="2" t="inlineStr"/>
-      <c r="Q48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="n"/>
+      <c r="Q48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3069,19 +3069,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
       <c r="O49" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P49" s="2" t="inlineStr"/>
-      <c r="Q49" s="2" t="inlineStr"/>
+      <c r="P49" s="2" t="n"/>
+      <c r="Q49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -3099,7 +3099,7 @@
           <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="n"/>
       <c r="E50" s="2" t="inlineStr">
         <is>
           <t>1.1.3.10</t>
@@ -3120,23 +3120,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="n"/>
+      <c r="J50" s="2" t="n"/>
+      <c r="K50" s="2" t="n"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
           <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
-      <c r="M50" s="2" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
+      <c r="M50" s="2" t="n"/>
+      <c r="N50" s="2" t="n"/>
       <c r="O50" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P50" s="2" t="inlineStr"/>
-      <c r="Q50" s="2" t="inlineStr"/>
+      <c r="P50" s="2" t="n"/>
+      <c r="Q50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3154,7 +3154,7 @@
           <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="n"/>
       <c r="E51" s="2" t="inlineStr">
         <is>
           <t>1.4</t>
@@ -3175,23 +3175,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
           <t>Includes surgery.</t>
         </is>
       </c>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
       <c r="O51" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P51" s="2" t="inlineStr"/>
-      <c r="Q51" s="2" t="inlineStr"/>
+      <c r="P51" s="2" t="n"/>
+      <c r="Q51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -3209,7 +3209,7 @@
           <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="n"/>
       <c r="E52" s="2" t="inlineStr">
         <is>
           <t>1.3</t>
@@ -3230,23 +3230,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="n"/>
       <c r="J52" s="2" t="inlineStr">
         <is>
           <t>Is intended to be disjoint from informational mode of delivery.</t>
         </is>
       </c>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
       <c r="O52" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P52" s="2" t="inlineStr"/>
-      <c r="Q52" s="2" t="inlineStr"/>
+      <c r="P52" s="2" t="n"/>
+      <c r="Q52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3264,7 +3264,7 @@
           <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="n"/>
       <c r="E53" s="2" t="inlineStr">
         <is>
           <t>1.3.1.5.1</t>
@@ -3285,19 +3285,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="inlineStr"/>
-      <c r="N53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
+      <c r="M53" s="2" t="n"/>
+      <c r="N53" s="2" t="n"/>
       <c r="O53" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P53" s="2" t="inlineStr"/>
-      <c r="Q53" s="2" t="inlineStr"/>
+      <c r="P53" s="2" t="n"/>
+      <c r="Q53" s="2" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -3340,19 +3340,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="n"/>
+      <c r="J54" s="2" t="n"/>
+      <c r="K54" s="2" t="n"/>
+      <c r="L54" s="2" t="n"/>
+      <c r="M54" s="2" t="n"/>
+      <c r="N54" s="2" t="n"/>
       <c r="O54" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P54" s="2" t="inlineStr"/>
-      <c r="Q54" s="2" t="inlineStr"/>
+      <c r="P54" s="2" t="n"/>
+      <c r="Q54" s="2" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3370,7 +3370,7 @@
           <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="n"/>
       <c r="E55" s="2" t="inlineStr">
         <is>
           <t>1.1.3.1</t>
@@ -3391,23 +3391,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Includes internet and satellite television.</t>
         </is>
       </c>
-      <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
       <c r="O55" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P55" s="2" t="inlineStr"/>
-      <c r="Q55" s="2" t="inlineStr"/>
+      <c r="P55" s="2" t="n"/>
+      <c r="Q55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3425,7 +3425,7 @@
           <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="n"/>
       <c r="E56" s="2" t="inlineStr">
         <is>
           <t>1.3.3.2</t>
@@ -3446,19 +3446,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="inlineStr"/>
-      <c r="N56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
       <c r="O56" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P56" s="2" t="inlineStr"/>
-      <c r="Q56" s="2" t="inlineStr"/>
+      <c r="P56" s="2" t="n"/>
+      <c r="Q56" s="2" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -3476,7 +3476,7 @@
           <t>Informational mode of delivery that involves written text.</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="n"/>
       <c r="E57" s="2" t="inlineStr">
         <is>
           <t>1.1.6</t>
@@ -3497,19 +3497,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="n"/>
+      <c r="J57" s="2" t="n"/>
+      <c r="K57" s="2" t="n"/>
+      <c r="L57" s="2" t="n"/>
+      <c r="M57" s="2" t="n"/>
+      <c r="N57" s="2" t="n"/>
       <c r="O57" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P57" s="2" t="inlineStr"/>
-      <c r="Q57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="n"/>
+      <c r="Q57" s="2" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3527,7 +3527,7 @@
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="n"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
           <t>1.3.1.1</t>
@@ -3548,19 +3548,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="n"/>
+      <c r="J58" s="2" t="n"/>
+      <c r="K58" s="2" t="n"/>
+      <c r="L58" s="2" t="n"/>
+      <c r="M58" s="2" t="n"/>
+      <c r="N58" s="2" t="n"/>
       <c r="O58" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P58" s="2" t="inlineStr"/>
-      <c r="Q58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="n"/>
+      <c r="Q58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3603,19 +3603,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I59" s="2" t="inlineStr"/>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="n"/>
+      <c r="J59" s="2" t="n"/>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
+      <c r="M59" s="2" t="n"/>
+      <c r="N59" s="2" t="n"/>
       <c r="O59" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P59" s="2" t="inlineStr"/>
-      <c r="Q59" s="2" t="inlineStr"/>
+      <c r="P59" s="2" t="n"/>
+      <c r="Q59" s="2" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -3633,7 +3633,7 @@
           <t>Call mode of delivery that involves video and audio information in the communication.</t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="n"/>
       <c r="E60" s="2" t="inlineStr">
         <is>
           <t>1.1.3.11.2</t>
@@ -3654,19 +3654,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I60" s="2" t="inlineStr"/>
-      <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
-      <c r="L60" s="2" t="inlineStr"/>
-      <c r="M60" s="2" t="inlineStr"/>
-      <c r="N60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="n"/>
+      <c r="J60" s="2" t="n"/>
+      <c r="K60" s="2" t="n"/>
+      <c r="L60" s="2" t="n"/>
+      <c r="M60" s="2" t="n"/>
+      <c r="N60" s="2" t="n"/>
       <c r="O60" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P60" s="2" t="inlineStr"/>
-      <c r="Q60" s="2" t="inlineStr"/>
+      <c r="P60" s="2" t="n"/>
+      <c r="Q60" s="2" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -3684,7 +3684,7 @@
           <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="n"/>
       <c r="E61" s="2" t="inlineStr">
         <is>
           <t>1.1.3.13</t>
@@ -3705,19 +3705,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I61" s="2" t="inlineStr"/>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="inlineStr"/>
-      <c r="N61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="n"/>
+      <c r="J61" s="2" t="n"/>
+      <c r="K61" s="2" t="n"/>
+      <c r="L61" s="2" t="n"/>
+      <c r="M61" s="2" t="n"/>
+      <c r="N61" s="2" t="n"/>
       <c r="O61" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P61" s="2" t="inlineStr"/>
-      <c r="Q61" s="2" t="inlineStr"/>
+      <c r="P61" s="2" t="n"/>
+      <c r="Q61" s="2" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -3735,7 +3735,7 @@
           <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="n"/>
       <c r="E62" s="2" t="inlineStr">
         <is>
           <t>1.1.3.8</t>
@@ -3756,19 +3756,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I62" s="2" t="inlineStr"/>
-      <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr"/>
-      <c r="L62" s="2" t="inlineStr"/>
-      <c r="M62" s="2" t="inlineStr"/>
-      <c r="N62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="n"/>
+      <c r="J62" s="2" t="n"/>
+      <c r="K62" s="2" t="n"/>
+      <c r="L62" s="2" t="n"/>
+      <c r="M62" s="2" t="n"/>
+      <c r="N62" s="2" t="n"/>
       <c r="O62" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P62" s="2" t="inlineStr"/>
-      <c r="Q62" s="2" t="inlineStr"/>
+      <c r="P62" s="2" t="n"/>
+      <c r="Q62" s="2" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -3786,7 +3786,7 @@
           <t>Informational mode of delivery that involves visual images.</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr"/>
+      <c r="D63" s="2" t="n"/>
       <c r="E63" s="2" t="inlineStr">
         <is>
           <t>1.1.5</t>
@@ -3807,19 +3807,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I63" s="2" t="inlineStr"/>
-      <c r="J63" s="2" t="inlineStr"/>
-      <c r="K63" s="2" t="inlineStr"/>
-      <c r="L63" s="2" t="inlineStr"/>
-      <c r="M63" s="2" t="inlineStr"/>
-      <c r="N63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="n"/>
+      <c r="J63" s="2" t="n"/>
+      <c r="K63" s="2" t="n"/>
+      <c r="L63" s="2" t="n"/>
+      <c r="M63" s="2" t="n"/>
+      <c r="N63" s="2" t="n"/>
       <c r="O63" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P63" s="2" t="inlineStr"/>
-      <c r="Q63" s="2" t="inlineStr"/>
+      <c r="P63" s="2" t="n"/>
+      <c r="Q63" s="2" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -3837,7 +3837,7 @@
           <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr"/>
+      <c r="D64" s="2" t="n"/>
       <c r="E64" s="2" t="inlineStr">
         <is>
           <t>1.1.3.5</t>
@@ -3858,23 +3858,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I64" s="2" t="inlineStr"/>
-      <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="n"/>
+      <c r="J64" s="2" t="n"/>
+      <c r="K64" s="2" t="n"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
           <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
-      <c r="M64" s="2" t="inlineStr"/>
-      <c r="N64" s="2" t="inlineStr"/>
+      <c r="M64" s="2" t="n"/>
+      <c r="N64" s="2" t="n"/>
       <c r="O64" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P64" s="2" t="inlineStr"/>
-      <c r="Q64" s="2" t="inlineStr"/>
+      <c r="P64" s="2" t="n"/>
+      <c r="Q64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -3892,7 +3892,7 @@
           <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
-      <c r="D65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="n"/>
       <c r="E65" s="2" t="inlineStr">
         <is>
           <t>1.3.1.6</t>
@@ -3913,23 +3913,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I65" s="2" t="inlineStr"/>
-      <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="n"/>
+      <c r="J65" s="2" t="n"/>
+      <c r="K65" s="2" t="n"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
           <t>Includes insulin pump.</t>
         </is>
       </c>
-      <c r="M65" s="2" t="inlineStr"/>
-      <c r="N65" s="2" t="inlineStr"/>
+      <c r="M65" s="2" t="n"/>
+      <c r="N65" s="2" t="n"/>
       <c r="O65" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P65" s="2" t="inlineStr"/>
-      <c r="Q65" s="2" t="inlineStr"/>
+      <c r="P65" s="2" t="n"/>
+      <c r="Q65" s="2" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -3947,7 +3947,7 @@
           <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr"/>
+      <c r="D66" s="2" t="n"/>
       <c r="E66" s="2" t="inlineStr">
         <is>
           <t>1.3.3.5</t>
@@ -3968,19 +3968,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I66" s="2" t="inlineStr"/>
-      <c r="J66" s="2" t="inlineStr"/>
-      <c r="K66" s="2" t="inlineStr"/>
-      <c r="L66" s="2" t="inlineStr"/>
-      <c r="M66" s="2" t="inlineStr"/>
-      <c r="N66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="n"/>
+      <c r="J66" s="2" t="n"/>
+      <c r="K66" s="2" t="n"/>
+      <c r="L66" s="2" t="n"/>
+      <c r="M66" s="2" t="n"/>
+      <c r="N66" s="2" t="n"/>
       <c r="O66" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P66" s="2" t="inlineStr"/>
-      <c r="Q66" s="2" t="inlineStr"/>
+      <c r="P66" s="2" t="n"/>
+      <c r="Q66" s="2" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -3998,7 +3998,7 @@
           <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr"/>
+      <c r="D67" s="2" t="n"/>
       <c r="E67" s="2" t="inlineStr">
         <is>
           <t>1.1.3.14</t>
@@ -4019,19 +4019,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I67" s="2" t="inlineStr"/>
-      <c r="J67" s="2" t="inlineStr"/>
-      <c r="K67" s="2" t="inlineStr"/>
-      <c r="L67" s="2" t="inlineStr"/>
-      <c r="M67" s="2" t="inlineStr"/>
-      <c r="N67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="n"/>
+      <c r="J67" s="2" t="n"/>
+      <c r="K67" s="2" t="n"/>
+      <c r="L67" s="2" t="n"/>
+      <c r="M67" s="2" t="n"/>
+      <c r="N67" s="2" t="n"/>
       <c r="O67" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P67" s="2" t="inlineStr"/>
-      <c r="Q67" s="2" t="inlineStr"/>
+      <c r="P67" s="2" t="n"/>
+      <c r="Q67" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MoD/inputs/MoD.xlsx
+++ b/MoD/inputs/MoD.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>(((  ))) test /// test2</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -560,15 +560,15 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr">
         <is>
           <t>Includes hologram but does not include virtual reality headsets.</t>
         </is>
       </c>
-      <c r="M2" s="2" t="n"/>
+      <c r="M2" s="2" t="inlineStr"/>
       <c r="N2" s="2" t="inlineStr">
         <is>
           <t>ZZ</t>
@@ -579,8 +579,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P2" s="2" t="n"/>
-      <c r="Q2" s="2" t="n"/>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -598,7 +598,7 @@
           <t>Somatic mode of delivery that involves ingestion of a chemical through the stomach or intestine.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n"/>
+      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
           <t>1.3.1.2</t>
@@ -619,19 +619,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
       <c r="O3" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P3" s="2" t="n"/>
-      <c r="Q3" s="2" t="n"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
           <t xml:space="preserve">Mode of delivery that involves application of creativity on the part of the intervention recipient. </t>
         </is>
       </c>
-      <c r="D4" s="2" t="n"/>
+      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr">
         <is>
           <t>1.15</t>
@@ -670,23 +670,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
           <t>Includes art therapy, music therapy, dance and acting.</t>
         </is>
       </c>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
       <c r="O4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P4" s="2" t="n"/>
-      <c r="Q4" s="2" t="n"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -729,19 +729,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
       <c r="O5" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="n"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
           <t>Human interactional mode of delivery that involves an intervention source and recipient being in different locations and communicating through a communication channel.</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n"/>
+      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr">
         <is>
           <t>1.1.1.2</t>
@@ -780,19 +780,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
       <c r="O6" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P6" s="2" t="n"/>
-      <c r="Q6" s="2" t="n"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
           <t>Call mode of delivery that involves only audio information in the communication.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n"/>
+      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t>1.1.3.11.1</t>
@@ -831,23 +831,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
           <t>Includes automated calls and audio messaging.</t>
         </is>
       </c>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
       <c r="O7" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P7" s="2" t="n"/>
-      <c r="Q7" s="2" t="n"/>
+      <c r="P7" s="2" t="inlineStr"/>
+      <c r="Q7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -865,7 +865,7 @@
           <t>Informational mode of delivery that involves sound.</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n"/>
+      <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr">
         <is>
           <t>1.1.4</t>
@@ -886,19 +886,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P8" s="2" t="n"/>
-      <c r="Q8" s="2" t="n"/>
+      <c r="P8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -916,7 +916,7 @@
           <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n"/>
+      <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr">
         <is>
           <t>1</t>
@@ -937,23 +937,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="inlineStr">
         <is>
           <t>BCI mode of delivery</t>
         </is>
       </c>
-      <c r="L9" s="2" t="n"/>
-      <c r="M9" s="2" t="n"/>
-      <c r="N9" s="2" t="n"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
       <c r="O9" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P9" s="2" t="n"/>
-      <c r="Q9" s="2" t="n"/>
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
           <t>Ingestion mode of delivery that involves absorption of a chemical through the lining of the buccal cavity.</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n"/>
+      <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t>1.3.1.3</t>
@@ -992,19 +992,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P10" s="2" t="n"/>
-      <c r="Q10" s="2" t="n"/>
+      <c r="P10" s="2" t="inlineStr"/>
+      <c r="Q10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1022,7 +1022,7 @@
           <t xml:space="preserve">Electronic mode of delivery that involves a communication process in which a signal is sent by a caller to a recipient to alert them of the communication intent, giving the recipient the opportunity to enage with the communication. </t>
         </is>
       </c>
-      <c r="D11" s="2" t="n"/>
+      <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr">
         <is>
           <t>1.1.3.11</t>
@@ -1043,23 +1043,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I11" s="2" t="n"/>
+      <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
           <t>Added in order to be able to capture the concept of a 'call'.</t>
         </is>
       </c>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
       <c r="O11" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P11" s="2" t="n"/>
-      <c r="Q11" s="2" t="n"/>
+      <c r="P11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1077,7 +1077,7 @@
           <t>Ingestion mode of delivery that involves chewing of a soft material.</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n"/>
+      <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr">
         <is>
           <t>1.3.2</t>
@@ -1098,23 +1098,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
           <t>This includes chewing gum. often involves ingestion of a chemical that is released by chewing and absorbed through the lining of the buccal cavity, but this is not necessary.</t>
         </is>
       </c>
-      <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="n"/>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr"/>
       <c r="O12" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P12" s="2" t="n"/>
-      <c r="Q12" s="2" t="n"/>
+      <c r="P12" s="2" t="inlineStr"/>
+      <c r="Q12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
           <t>Electronic mode of delivery that involves presentation of information by a desktop or laptop computer.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n"/>
+      <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t>1.1.3.3</t>
@@ -1153,19 +1153,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
       <c r="O13" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="n"/>
+      <c r="P13" s="2" t="inlineStr"/>
+      <c r="Q13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
           <t>Electronic mode of delivery that involves the intervention recipient being given access to an e-book.</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n"/>
+      <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr">
         <is>
           <t>1.1.3.16</t>
@@ -1204,19 +1204,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
       <c r="O14" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P14" s="2" t="n"/>
-      <c r="Q14" s="2" t="n"/>
+      <c r="P14" s="2" t="inlineStr"/>
+      <c r="Q14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1234,7 +1234,7 @@
           <t>Physical stimulus mode of delivery that involves application of electrical stimulation to the body.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n"/>
+      <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t>1.3.3.3</t>
@@ -1255,19 +1255,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
       <c r="O15" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P15" s="2" t="n"/>
-      <c r="Q15" s="2" t="n"/>
+      <c r="P15" s="2" t="inlineStr"/>
+      <c r="Q15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1285,7 +1285,7 @@
           <t>Electronic mode of delivery that involves presentation of information by an electronic screen positioned in a public location.</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n"/>
+      <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr">
         <is>
           <t>1.1.3.4</t>
@@ -1306,19 +1306,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
-      <c r="M16" s="2" t="n"/>
-      <c r="N16" s="2" t="n"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
       <c r="O16" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P16" s="2" t="n"/>
-      <c r="Q16" s="2" t="n"/>
+      <c r="P16" s="2" t="inlineStr"/>
+      <c r="Q16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1336,7 +1336,7 @@
           <t>Electronic mode of delivery that involves an electronic device positioned in the environment of the intervention recipient that can gather information and respond to commands.</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n"/>
+      <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr">
         <is>
           <t>1.1.3.6</t>
@@ -1357,23 +1357,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Includes robots, and 'internet of things'.</t>
         </is>
       </c>
-      <c r="M17" s="2" t="n"/>
-      <c r="N17" s="2" t="n"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
       <c r="O17" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P17" s="2" t="n"/>
-      <c r="Q17" s="2" t="n"/>
+      <c r="P17" s="2" t="inlineStr"/>
+      <c r="Q17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
           <t>Informational mode of delivery that involves electronic technology in the presentation of information to an intervention recipient.</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n"/>
+      <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="inlineStr">
         <is>
           <t>1.1.3</t>
@@ -1412,23 +1412,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I18" s="2" t="n"/>
+      <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr">
         <is>
           <t>Electronic has been used rather than digital because not all of the content may involve digital encoding - some may be analogue. Also, it is the electronic nature that is central not the means of encoding.</t>
         </is>
       </c>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
       <c r="O18" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="n"/>
+      <c r="P18" s="2" t="inlineStr"/>
+      <c r="Q18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
           <t>Electronic mode of delivery that involves communication by email.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n"/>
+      <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1.1.3.12</t>
@@ -1467,19 +1467,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
-      <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="n"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P19" s="2" t="n"/>
-      <c r="Q19" s="2" t="n"/>
+      <c r="P19" s="2" t="inlineStr"/>
+      <c r="Q19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1497,7 +1497,7 @@
           <t>Mode of delivery that involves changing the physical shape, size, structure or appearance of objects in the environment of the intervention recipient.</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n"/>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr">
         <is>
           <t>1.2</t>
@@ -1518,27 +1518,27 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I20" s="2" t="n"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr">
         <is>
           <t>This is a very heterogeneous class that will need to be further subdivided.</t>
         </is>
       </c>
-      <c r="K20" s="2" t="n"/>
+      <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
           <t>This does not include use of textual or pictorial information. It includes lighting, speed humps, use of music, shape and size of containers of consumables.</t>
         </is>
       </c>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P20" s="2" t="n"/>
-      <c r="Q20" s="2" t="n"/>
+      <c r="P20" s="2" t="inlineStr"/>
+      <c r="Q20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1556,7 +1556,7 @@
           <t>Human interactional mode of delivery that involves an intervention source and recipient being together in the same location and communicating directly.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n"/>
+      <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr">
         <is>
           <t>1.1.1.1</t>
@@ -1577,19 +1577,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
-      <c r="M21" s="2" t="n"/>
-      <c r="N21" s="2" t="n"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
       <c r="O21" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P21" s="2" t="n"/>
-      <c r="Q21" s="2" t="n"/>
+      <c r="P21" s="2" t="inlineStr"/>
+      <c r="Q21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1607,7 +1607,7 @@
           <t>Mode of delivery that involves application of typical elements of game playing  to other areas of activity, typically as an online marketing technique to encourage engagement with a product or service.</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n"/>
+      <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr">
         <is>
           <t>1.14</t>
@@ -1633,22 +1633,22 @@
           <t>https://www.lexico.com/en/definition/gamification</t>
         </is>
       </c>
-      <c r="J22" s="2" t="n"/>
-      <c r="K22" s="2" t="n"/>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
           <t>Includes point scoring, competition with others, and rules of play.</t>
         </is>
       </c>
-      <c r="M22" s="2" t="n"/>
-      <c r="N22" s="2" t="n"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
       <c r="O22" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P22" s="2" t="n"/>
-      <c r="Q22" s="2" t="n"/>
+      <c r="P22" s="2" t="inlineStr"/>
+      <c r="Q22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1691,19 +1691,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I23" s="2" t="n"/>
-      <c r="J23" s="2" t="n"/>
-      <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="n"/>
-      <c r="M23" s="2" t="n"/>
-      <c r="N23" s="2" t="n"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
       <c r="O23" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P23" s="2" t="n"/>
-      <c r="Q23" s="2" t="n"/>
+      <c r="P23" s="2" t="inlineStr"/>
+      <c r="Q23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1721,7 +1721,7 @@
           <t>Informational mode of delivery that involves a person as intervention source who interacts with an intervention recipient in real time.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n"/>
+      <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr">
         <is>
           <t>1.1.1</t>
@@ -1742,19 +1742,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
-      <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="n"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
       <c r="O24" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P24" s="2" t="n"/>
-      <c r="Q24" s="2" t="n"/>
+      <c r="P24" s="2" t="inlineStr"/>
+      <c r="Q24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1797,19 +1797,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I25" s="2" t="n"/>
-      <c r="J25" s="2" t="n"/>
-      <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="n"/>
-      <c r="M25" s="2" t="n"/>
-      <c r="N25" s="2" t="n"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
       <c r="O25" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P25" s="2" t="n"/>
-      <c r="Q25" s="2" t="n"/>
+      <c r="P25" s="2" t="inlineStr"/>
+      <c r="Q25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1827,7 +1827,7 @@
           <t>Mode of delivery that involves intentional transmission of a representation of the world to an intervention recipient with the aim of changing that person's representation of the world.</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n"/>
+      <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr">
         <is>
           <t>1.1</t>
@@ -1848,23 +1848,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I26" s="2" t="n"/>
-      <c r="J26" s="2" t="n"/>
-      <c r="K26" s="2" t="n"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
           <t>This includes delivery of rewards, prompts, and cues that result in learning and information about the environment and environmental contingencies.</t>
         </is>
       </c>
-      <c r="M26" s="2" t="n"/>
-      <c r="N26" s="2" t="n"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
       <c r="O26" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P26" s="2" t="n"/>
-      <c r="Q26" s="2" t="n"/>
+      <c r="P26" s="2" t="inlineStr"/>
+      <c r="Q26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1882,7 +1882,7 @@
           <t>Alimentary mode of delivery that involves swallowing of a liquid.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n"/>
+      <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr">
         <is>
           <t>1.3.1.2.2</t>
@@ -1903,19 +1903,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
-      <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
-      <c r="M27" s="2" t="n"/>
-      <c r="N27" s="2" t="n"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
       <c r="O27" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P27" s="2" t="n"/>
-      <c r="Q27" s="2" t="n"/>
+      <c r="P27" s="2" t="inlineStr"/>
+      <c r="Q27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -1933,7 +1933,7 @@
           <t>Somatic mode of delivery that involves ingestion of a chemical into the body.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n"/>
+      <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr">
         <is>
           <t>1.3.1</t>
@@ -1954,19 +1954,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="n"/>
-      <c r="K28" s="2" t="n"/>
-      <c r="L28" s="2" t="n"/>
-      <c r="M28" s="2" t="n"/>
-      <c r="N28" s="2" t="n"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
       <c r="O28" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P28" s="2" t="n"/>
-      <c r="Q28" s="2" t="n"/>
+      <c r="P28" s="2" t="inlineStr"/>
+      <c r="Q28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -1984,7 +1984,7 @@
           <t>Ingestion mode of delivery that involves absorption of a chemical through  the upper airways or lungs by inspiration.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n"/>
+      <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
           <t>1.3.1.4</t>
@@ -2005,19 +2005,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I29" s="2" t="n"/>
-      <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="n"/>
-      <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="n"/>
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
       <c r="O29" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P29" s="2" t="n"/>
-      <c r="Q29" s="2" t="n"/>
+      <c r="P29" s="2" t="inlineStr"/>
+      <c r="Q29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2035,7 +2035,7 @@
           <t>Ingestion mode of delivery that involves a chemical being introduced into body tissue through a hollow needle that punctures the skin.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n"/>
+      <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
           <t>1.3.1.5</t>
@@ -2056,19 +2056,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I30" s="2" t="n"/>
-      <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
-      <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="n"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
       <c r="O30" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P30" s="2" t="n"/>
-      <c r="Q30" s="2" t="n"/>
+      <c r="P30" s="2" t="inlineStr"/>
+      <c r="Q30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2111,19 +2111,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I31" s="2" t="n"/>
-      <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
-      <c r="M31" s="2" t="n"/>
-      <c r="N31" s="2" t="n"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
       <c r="O31" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P31" s="2" t="n"/>
-      <c r="Q31" s="2" t="n"/>
+      <c r="P31" s="2" t="inlineStr"/>
+      <c r="Q31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2141,7 +2141,7 @@
           <t>Injection mode of delivery in which the tissue receiving the chemical is muscle.</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n"/>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
           <t>1.3.1.5.3</t>
@@ -2162,19 +2162,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I32" s="2" t="n"/>
-      <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="n"/>
-      <c r="L32" s="2" t="n"/>
-      <c r="M32" s="2" t="n"/>
-      <c r="N32" s="2" t="n"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
       <c r="O32" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P32" s="2" t="n"/>
-      <c r="Q32" s="2" t="n"/>
+      <c r="P32" s="2" t="inlineStr"/>
+      <c r="Q32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2192,7 +2192,7 @@
           <t>Injection mode of delivery in which the tissue receiving the chemical is venous blood.</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n"/>
+      <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
           <t>1.3.1.5.2</t>
@@ -2213,19 +2213,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
-      <c r="M33" s="2" t="n"/>
-      <c r="N33" s="2" t="n"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
       <c r="O33" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P33" s="2" t="n"/>
-      <c r="Q33" s="2" t="n"/>
+      <c r="P33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2243,7 +2243,7 @@
           <t>Printed material mode of delivery that involves information printed on a product or its packaging, or a label attached to or included with, a product or its packaging, and aims to convey information about that product.</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n"/>
+      <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
           <t>1.1.2.4</t>
@@ -2264,19 +2264,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I34" s="2" t="n"/>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="n"/>
-      <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="n"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
       <c r="O34" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P34" s="2" t="n"/>
-      <c r="Q34" s="2" t="n"/>
+      <c r="P34" s="2" t="inlineStr"/>
+      <c r="Q34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2294,7 +2294,7 @@
           <t>Printed material mode of delivery that involves a letter or postcard that can be sent through the post or handed directly to the recipient</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n"/>
+      <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
           <t>1.1.2.1</t>
@@ -2315,19 +2315,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I35" s="2" t="n"/>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
-      <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="n"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
       <c r="O35" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P35" s="2" t="n"/>
-      <c r="Q35" s="2" t="n"/>
+      <c r="P35" s="2" t="inlineStr"/>
+      <c r="Q35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2345,7 +2345,7 @@
           <t>Physical stimulus mode of delivery that involves exposure of light to the body</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n"/>
+      <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr">
         <is>
           <t>1.3.3.1</t>
@@ -2366,23 +2366,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr">
         <is>
           <t>Includes photo therapy</t>
         </is>
       </c>
-      <c r="L36" s="2" t="n"/>
-      <c r="M36" s="2" t="n"/>
-      <c r="N36" s="2" t="n"/>
+      <c r="L36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
       <c r="O36" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P36" s="2" t="n"/>
-      <c r="Q36" s="2" t="n"/>
+      <c r="P36" s="2" t="inlineStr"/>
+      <c r="Q36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
           <t>Call mode of delivery that involves textual information in the communication.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n"/>
+      <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
           <t>1.1.3.11.3</t>
@@ -2421,23 +2421,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I37" s="2" t="n"/>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
           <t>Text message can include emojis, and additional audio and pictorial material. Includes SMS, WhatsApp and other messaging services.</t>
         </is>
       </c>
-      <c r="M37" s="2" t="n"/>
-      <c r="N37" s="2" t="n"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr"/>
       <c r="O37" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P37" s="2" t="n"/>
-      <c r="Q37" s="2" t="n"/>
+      <c r="P37" s="2" t="inlineStr"/>
+      <c r="Q37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2455,7 +2455,7 @@
           <t>Electronic mode of delivery that involves the intervention recipient interacting with a mobile application.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n"/>
+      <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
           <t>1.1.3.15</t>
@@ -2476,23 +2476,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I38" s="2" t="n"/>
+      <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> The distinction between websites and mobile applications has become blurred with the advent of webapps.</t>
         </is>
       </c>
-      <c r="K38" s="2" t="n"/>
-      <c r="L38" s="2" t="n"/>
-      <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="n"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
       <c r="O38" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P38" s="2" t="n"/>
-      <c r="Q38" s="2" t="n"/>
+      <c r="P38" s="2" t="inlineStr"/>
+      <c r="Q38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2510,7 +2510,7 @@
           <t>Electronic mode of delivery that involves presentation of information by a handheld mobile digital device that can store, retrieve and process data.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n"/>
+      <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
           <t>1.1.3.2</t>
@@ -2531,19 +2531,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I39" s="2" t="n"/>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
-      <c r="L39" s="2" t="n"/>
-      <c r="M39" s="2" t="n"/>
-      <c r="N39" s="2" t="n"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
       <c r="O39" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P39" s="2" t="n"/>
-      <c r="Q39" s="2" t="n"/>
+      <c r="P39" s="2" t="inlineStr"/>
+      <c r="Q39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2586,19 +2586,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I40" s="2" t="n"/>
-      <c r="J40" s="2" t="n"/>
-      <c r="K40" s="2" t="n"/>
-      <c r="L40" s="2" t="n"/>
-      <c r="M40" s="2" t="n"/>
-      <c r="N40" s="2" t="n"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
       <c r="O40" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P40" s="2" t="n"/>
-      <c r="Q40" s="2" t="n"/>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2616,7 +2616,7 @@
           <t>Physical stimulus mode of delivery that involves application of physical pressure to the outside of the body.</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n"/>
+      <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr">
         <is>
           <t>1.3.3.4</t>
@@ -2637,23 +2637,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I41" s="2" t="n"/>
-      <c r="J41" s="2" t="n"/>
-      <c r="K41" s="2" t="n"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Includes massage.</t>
         </is>
       </c>
-      <c r="M41" s="2" t="n"/>
-      <c r="N41" s="2" t="n"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
       <c r="O41" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P41" s="2" t="n"/>
-      <c r="Q41" s="2" t="n"/>
+      <c r="P41" s="2" t="inlineStr"/>
+      <c r="Q41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2671,7 +2671,7 @@
           <t>A mode of delivery that involves application of a physical stimulus to the body.</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n"/>
+      <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr">
         <is>
           <t>1.3.3</t>
@@ -2692,19 +2692,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n"/>
-      <c r="K42" s="2" t="n"/>
-      <c r="L42" s="2" t="n"/>
-      <c r="M42" s="2" t="n"/>
-      <c r="N42" s="2" t="n"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
       <c r="O42" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P42" s="2" t="n"/>
-      <c r="Q42" s="2" t="n"/>
+      <c r="P42" s="2" t="inlineStr"/>
+      <c r="Q42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2722,7 +2722,7 @@
           <t>Alimentary mode of delivery that involves swallowing of a pill or oral capsule.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n"/>
+      <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr">
         <is>
           <t>1.3.1.2.1</t>
@@ -2743,19 +2743,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="n"/>
-      <c r="K43" s="2" t="n"/>
-      <c r="L43" s="2" t="n"/>
-      <c r="M43" s="2" t="n"/>
-      <c r="N43" s="2" t="n"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr"/>
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="inlineStr"/>
       <c r="O43" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P43" s="2" t="n"/>
-      <c r="Q43" s="2" t="n"/>
+      <c r="P43" s="2" t="inlineStr"/>
+      <c r="Q43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2773,7 +2773,7 @@
           <t>Electronic mode of delivery that involves presentation of information stored on an object that is inserted into a playing device.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n"/>
+      <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
           <t>1.1.3.9</t>
@@ -2794,23 +2794,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Includes cassettes, video tapes, DVDs, CDs.</t>
         </is>
       </c>
-      <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="inlineStr"/>
       <c r="O44" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P44" s="2" t="n"/>
-      <c r="Q44" s="2" t="n"/>
+      <c r="P44" s="2" t="inlineStr"/>
+      <c r="Q44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2828,7 +2828,7 @@
           <t>Informational mode of delivery that involves use of printed material.</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n"/>
+      <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
           <t>1.1.2</t>
@@ -2849,23 +2849,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Can include paper, acetate, text, diagrams and photographic images.</t>
         </is>
       </c>
-      <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr"/>
       <c r="O45" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P45" s="2" t="n"/>
-      <c r="Q45" s="2" t="n"/>
+      <c r="P45" s="2" t="inlineStr"/>
+      <c r="Q45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -2883,7 +2883,7 @@
           <t xml:space="preserve">Printed material mode of delivery that involves use of of a printed publication. </t>
         </is>
       </c>
-      <c r="D46" s="2" t="n"/>
+      <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr">
         <is>
           <t>1.1.2.3</t>
@@ -2904,23 +2904,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I46" s="2" t="n"/>
-      <c r="J46" s="2" t="n"/>
-      <c r="K46" s="2" t="n"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Includes leaflets, brochures, newspapers, newsletter, booklets, mazazines, manuals or worksheets.</t>
         </is>
       </c>
-      <c r="M46" s="2" t="n"/>
-      <c r="N46" s="2" t="n"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
       <c r="O46" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P46" s="2" t="n"/>
-      <c r="Q46" s="2" t="n"/>
+      <c r="P46" s="2" t="inlineStr"/>
+      <c r="Q46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -2938,7 +2938,7 @@
           <t>Printed material mode of delivery that involves display of a poster, sign or notice in a public location.</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n"/>
+      <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr">
         <is>
           <t>1.1.2.2</t>
@@ -2959,19 +2959,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I47" s="2" t="n"/>
-      <c r="J47" s="2" t="n"/>
-      <c r="K47" s="2" t="n"/>
-      <c r="L47" s="2" t="n"/>
-      <c r="M47" s="2" t="n"/>
-      <c r="N47" s="2" t="n"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="inlineStr"/>
       <c r="O47" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P47" s="2" t="n"/>
-      <c r="Q47" s="2" t="n"/>
+      <c r="P47" s="2" t="inlineStr"/>
+      <c r="Q47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3014,19 +3014,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I48" s="2" t="n"/>
-      <c r="J48" s="2" t="n"/>
-      <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="n"/>
-      <c r="M48" s="2" t="n"/>
-      <c r="N48" s="2" t="n"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
       <c r="O48" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P48" s="2" t="n"/>
-      <c r="Q48" s="2" t="n"/>
+      <c r="P48" s="2" t="inlineStr"/>
+      <c r="Q48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3069,19 +3069,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I49" s="2" t="n"/>
-      <c r="J49" s="2" t="n"/>
-      <c r="K49" s="2" t="n"/>
-      <c r="L49" s="2" t="n"/>
-      <c r="M49" s="2" t="n"/>
-      <c r="N49" s="2" t="n"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="inlineStr"/>
       <c r="O49" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P49" s="2" t="n"/>
-      <c r="Q49" s="2" t="n"/>
+      <c r="P49" s="2" t="inlineStr"/>
+      <c r="Q49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -3099,7 +3099,7 @@
           <t>Electronic mode of delivery that involves presentation of audio information that is broadcast and received by a radio receiver.</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n"/>
+      <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr">
         <is>
           <t>1.1.3.10</t>
@@ -3120,23 +3120,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I50" s="2" t="n"/>
-      <c r="J50" s="2" t="n"/>
-      <c r="K50" s="2" t="n"/>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
           <t>Includes digital radio and audio that is streamed as a podcast.</t>
         </is>
       </c>
-      <c r="M50" s="2" t="n"/>
-      <c r="N50" s="2" t="n"/>
+      <c r="M50" s="2" t="inlineStr"/>
+      <c r="N50" s="2" t="inlineStr"/>
       <c r="O50" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P50" s="2" t="n"/>
-      <c r="Q50" s="2" t="n"/>
+      <c r="P50" s="2" t="inlineStr"/>
+      <c r="Q50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3154,7 +3154,7 @@
           <t>Mode of of delivery that involves modifying the structure of the body of the recipient of the intervention.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n"/>
+      <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr">
         <is>
           <t>1.4</t>
@@ -3175,23 +3175,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I51" s="2" t="n"/>
-      <c r="J51" s="2" t="n"/>
-      <c r="K51" s="2" t="n"/>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
           <t>Includes surgery.</t>
         </is>
       </c>
-      <c r="M51" s="2" t="n"/>
-      <c r="N51" s="2" t="n"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
       <c r="O51" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P51" s="2" t="n"/>
-      <c r="Q51" s="2" t="n"/>
+      <c r="P51" s="2" t="inlineStr"/>
+      <c r="Q51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -3209,7 +3209,7 @@
           <t>Mode of delivery that involves devices or substances that alter bodily processes or structure.</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n"/>
+      <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr">
         <is>
           <t>1.3</t>
@@ -3230,23 +3230,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I52" s="2" t="n"/>
+      <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr">
         <is>
           <t>Is intended to be disjoint from informational mode of delivery.</t>
         </is>
       </c>
-      <c r="K52" s="2" t="n"/>
-      <c r="L52" s="2" t="n"/>
-      <c r="M52" s="2" t="n"/>
-      <c r="N52" s="2" t="n"/>
+      <c r="K52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr"/>
+      <c r="N52" s="2" t="inlineStr"/>
       <c r="O52" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P52" s="2" t="n"/>
-      <c r="Q52" s="2" t="n"/>
+      <c r="P52" s="2" t="inlineStr"/>
+      <c r="Q52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3264,7 +3264,7 @@
           <t>Injection mode of delivery in which the tissue receiving the chemical is subcutaneous tissue.</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n"/>
+      <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr">
         <is>
           <t>1.3.1.5.1</t>
@@ -3285,19 +3285,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I53" s="2" t="n"/>
-      <c r="J53" s="2" t="n"/>
-      <c r="K53" s="2" t="n"/>
-      <c r="L53" s="2" t="n"/>
-      <c r="M53" s="2" t="n"/>
-      <c r="N53" s="2" t="n"/>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
+      <c r="M53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="inlineStr"/>
       <c r="O53" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P53" s="2" t="n"/>
-      <c r="Q53" s="2" t="n"/>
+      <c r="P53" s="2" t="inlineStr"/>
+      <c r="Q53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -3340,19 +3340,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I54" s="2" t="n"/>
-      <c r="J54" s="2" t="n"/>
-      <c r="K54" s="2" t="n"/>
-      <c r="L54" s="2" t="n"/>
-      <c r="M54" s="2" t="n"/>
-      <c r="N54" s="2" t="n"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="inlineStr"/>
       <c r="O54" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P54" s="2" t="n"/>
-      <c r="Q54" s="2" t="n"/>
+      <c r="P54" s="2" t="inlineStr"/>
+      <c r="Q54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3370,7 +3370,7 @@
           <t>Electronic mode of delivery that involves presentation of information that is broadcast and displayed by television.</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n"/>
+      <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr">
         <is>
           <t>1.1.3.1</t>
@@ -3391,23 +3391,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I55" s="2" t="n"/>
-      <c r="J55" s="2" t="n"/>
-      <c r="K55" s="2" t="n"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Includes internet and satellite television.</t>
         </is>
       </c>
-      <c r="M55" s="2" t="n"/>
-      <c r="N55" s="2" t="n"/>
+      <c r="M55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr"/>
       <c r="O55" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P55" s="2" t="n"/>
-      <c r="Q55" s="2" t="n"/>
+      <c r="P55" s="2" t="inlineStr"/>
+      <c r="Q55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3425,7 +3425,7 @@
           <t>Physical stimulius mode of delivery that involves application of heat or cold to the body.</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n"/>
+      <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="2" t="inlineStr">
         <is>
           <t>1.3.3.2</t>
@@ -3446,19 +3446,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I56" s="2" t="n"/>
-      <c r="J56" s="2" t="n"/>
-      <c r="K56" s="2" t="n"/>
-      <c r="L56" s="2" t="n"/>
-      <c r="M56" s="2" t="n"/>
-      <c r="N56" s="2" t="n"/>
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="inlineStr"/>
+      <c r="M56" s="2" t="inlineStr"/>
+      <c r="N56" s="2" t="inlineStr"/>
       <c r="O56" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P56" s="2" t="n"/>
-      <c r="Q56" s="2" t="n"/>
+      <c r="P56" s="2" t="inlineStr"/>
+      <c r="Q56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -3476,7 +3476,7 @@
           <t>Informational mode of delivery that involves written text.</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n"/>
+      <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="2" t="inlineStr">
         <is>
           <t>1.1.6</t>
@@ -3497,19 +3497,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I57" s="2" t="n"/>
-      <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="n"/>
-      <c r="L57" s="2" t="n"/>
-      <c r="M57" s="2" t="n"/>
-      <c r="N57" s="2" t="n"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
       <c r="O57" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P57" s="2" t="n"/>
-      <c r="Q57" s="2" t="n"/>
+      <c r="P57" s="2" t="inlineStr"/>
+      <c r="Q57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3527,7 +3527,7 @@
           <t>Ingestion mode of delivery that involves ingestion of a chemical through the skin.</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n"/>
+      <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
           <t>1.3.1.1</t>
@@ -3548,19 +3548,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I58" s="2" t="n"/>
-      <c r="J58" s="2" t="n"/>
-      <c r="K58" s="2" t="n"/>
-      <c r="L58" s="2" t="n"/>
-      <c r="M58" s="2" t="n"/>
-      <c r="N58" s="2" t="n"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
       <c r="O58" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P58" s="2" t="n"/>
-      <c r="Q58" s="2" t="n"/>
+      <c r="P58" s="2" t="inlineStr"/>
+      <c r="Q58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3603,19 +3603,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I59" s="2" t="n"/>
-      <c r="J59" s="2" t="n"/>
-      <c r="K59" s="2" t="n"/>
-      <c r="L59" s="2" t="n"/>
-      <c r="M59" s="2" t="n"/>
-      <c r="N59" s="2" t="n"/>
+      <c r="I59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
+      <c r="M59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="inlineStr"/>
       <c r="O59" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P59" s="2" t="n"/>
-      <c r="Q59" s="2" t="n"/>
+      <c r="P59" s="2" t="inlineStr"/>
+      <c r="Q59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -3633,7 +3633,7 @@
           <t>Call mode of delivery that involves video and audio information in the communication.</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n"/>
+      <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr">
         <is>
           <t>1.1.3.11.2</t>
@@ -3654,19 +3654,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I60" s="2" t="n"/>
-      <c r="J60" s="2" t="n"/>
-      <c r="K60" s="2" t="n"/>
-      <c r="L60" s="2" t="n"/>
-      <c r="M60" s="2" t="n"/>
-      <c r="N60" s="2" t="n"/>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr"/>
       <c r="O60" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P60" s="2" t="n"/>
-      <c r="Q60" s="2" t="n"/>
+      <c r="P60" s="2" t="inlineStr"/>
+      <c r="Q60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -3684,7 +3684,7 @@
           <t>Electronic mode of delivery that involves the intervention recipient playing a computer game.</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n"/>
+      <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr">
         <is>
           <t>1.1.3.13</t>
@@ -3705,19 +3705,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I61" s="2" t="n"/>
-      <c r="J61" s="2" t="n"/>
-      <c r="K61" s="2" t="n"/>
-      <c r="L61" s="2" t="n"/>
-      <c r="M61" s="2" t="n"/>
-      <c r="N61" s="2" t="n"/>
+      <c r="I61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="inlineStr"/>
+      <c r="M61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="inlineStr"/>
       <c r="O61" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P61" s="2" t="n"/>
-      <c r="Q61" s="2" t="n"/>
+      <c r="P61" s="2" t="inlineStr"/>
+      <c r="Q61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -3735,7 +3735,7 @@
           <t>Electronic mode of delivery that involves use of virtual reality through a virtual reality headset and optionally body movement sensors.</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n"/>
+      <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr">
         <is>
           <t>1.1.3.8</t>
@@ -3756,19 +3756,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I62" s="2" t="n"/>
-      <c r="J62" s="2" t="n"/>
-      <c r="K62" s="2" t="n"/>
-      <c r="L62" s="2" t="n"/>
-      <c r="M62" s="2" t="n"/>
-      <c r="N62" s="2" t="n"/>
+      <c r="I62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="inlineStr"/>
+      <c r="K62" s="2" t="inlineStr"/>
+      <c r="L62" s="2" t="inlineStr"/>
+      <c r="M62" s="2" t="inlineStr"/>
+      <c r="N62" s="2" t="inlineStr"/>
       <c r="O62" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P62" s="2" t="n"/>
-      <c r="Q62" s="2" t="n"/>
+      <c r="P62" s="2" t="inlineStr"/>
+      <c r="Q62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -3786,7 +3786,7 @@
           <t>Informational mode of delivery that involves visual images.</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n"/>
+      <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr">
         <is>
           <t>1.1.5</t>
@@ -3807,19 +3807,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I63" s="2" t="n"/>
-      <c r="J63" s="2" t="n"/>
-      <c r="K63" s="2" t="n"/>
-      <c r="L63" s="2" t="n"/>
-      <c r="M63" s="2" t="n"/>
-      <c r="N63" s="2" t="n"/>
+      <c r="I63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="inlineStr"/>
+      <c r="K63" s="2" t="inlineStr"/>
+      <c r="L63" s="2" t="inlineStr"/>
+      <c r="M63" s="2" t="inlineStr"/>
+      <c r="N63" s="2" t="inlineStr"/>
       <c r="O63" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P63" s="2" t="n"/>
-      <c r="Q63" s="2" t="n"/>
+      <c r="P63" s="2" t="inlineStr"/>
+      <c r="Q63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -3837,7 +3837,7 @@
           <t>Electronic mode of delivery that involves presentation of information by an electronic device that is worn or carried on the body.</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n"/>
+      <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr">
         <is>
           <t>1.1.3.5</t>
@@ -3858,23 +3858,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I64" s="2" t="n"/>
-      <c r="J64" s="2" t="n"/>
-      <c r="K64" s="2" t="n"/>
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr"/>
+      <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
           <t>Includes a watch, clip-on device, spectacles, in-ear devfice, vibrating device.</t>
         </is>
       </c>
-      <c r="M64" s="2" t="n"/>
-      <c r="N64" s="2" t="n"/>
+      <c r="M64" s="2" t="inlineStr"/>
+      <c r="N64" s="2" t="inlineStr"/>
       <c r="O64" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P64" s="2" t="n"/>
-      <c r="Q64" s="2" t="n"/>
+      <c r="P64" s="2" t="inlineStr"/>
+      <c r="Q64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -3892,7 +3892,7 @@
           <t>Ingestion mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
-      <c r="D65" s="2" t="n"/>
+      <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="2" t="inlineStr">
         <is>
           <t>1.3.1.6</t>
@@ -3913,23 +3913,23 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I65" s="2" t="n"/>
-      <c r="J65" s="2" t="n"/>
-      <c r="K65" s="2" t="n"/>
+      <c r="I65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="inlineStr"/>
+      <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
           <t>Includes insulin pump.</t>
         </is>
       </c>
-      <c r="M65" s="2" t="n"/>
-      <c r="N65" s="2" t="n"/>
+      <c r="M65" s="2" t="inlineStr"/>
+      <c r="N65" s="2" t="inlineStr"/>
       <c r="O65" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P65" s="2" t="n"/>
-      <c r="Q65" s="2" t="n"/>
+      <c r="P65" s="2" t="inlineStr"/>
+      <c r="Q65" s="2" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -3947,7 +3947,7 @@
           <t>Physical stimulus mode of delivery that involves a device that is worn on the body.</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n"/>
+      <c r="D66" s="2" t="inlineStr"/>
       <c r="E66" s="2" t="inlineStr">
         <is>
           <t>1.3.3.5</t>
@@ -3968,19 +3968,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I66" s="2" t="n"/>
-      <c r="J66" s="2" t="n"/>
-      <c r="K66" s="2" t="n"/>
-      <c r="L66" s="2" t="n"/>
-      <c r="M66" s="2" t="n"/>
-      <c r="N66" s="2" t="n"/>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr"/>
+      <c r="K66" s="2" t="inlineStr"/>
+      <c r="L66" s="2" t="inlineStr"/>
+      <c r="M66" s="2" t="inlineStr"/>
+      <c r="N66" s="2" t="inlineStr"/>
       <c r="O66" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P66" s="2" t="n"/>
-      <c r="Q66" s="2" t="n"/>
+      <c r="P66" s="2" t="inlineStr"/>
+      <c r="Q66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -3998,7 +3998,7 @@
           <t>Electronic mode of delivery that involves the intervention recipient interacting with a website.</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n"/>
+      <c r="D67" s="2" t="inlineStr"/>
       <c r="E67" s="2" t="inlineStr">
         <is>
           <t>1.1.3.14</t>
@@ -4019,19 +4019,19 @@
           <t>Mode of delivery</t>
         </is>
       </c>
-      <c r="I67" s="2" t="n"/>
-      <c r="J67" s="2" t="n"/>
-      <c r="K67" s="2" t="n"/>
-      <c r="L67" s="2" t="n"/>
-      <c r="M67" s="2" t="n"/>
-      <c r="N67" s="2" t="n"/>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr"/>
+      <c r="K67" s="2" t="inlineStr"/>
+      <c r="L67" s="2" t="inlineStr"/>
+      <c r="M67" s="2" t="inlineStr"/>
+      <c r="N67" s="2" t="inlineStr"/>
       <c r="O67" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="P67" s="2" t="n"/>
-      <c r="Q67" s="2" t="n"/>
+      <c r="P67" s="2" t="inlineStr"/>
+      <c r="Q67" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MoD/inputs/MoD.xlsx
+++ b/MoD/inputs/MoD.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>test3</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/MoD/inputs/MoD.xlsx
+++ b/MoD/inputs/MoD.xlsx
@@ -535,11 +535,7 @@
           <t>Electronic mode of delivery that involves presentation of a 3-D image.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>test3</t>
-        </is>
-      </c>
+      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr">
         <is>
           <t>1.1.3.7</t>
